--- a/target/classes/dataExcel/TestData.xlsx
+++ b/target/classes/dataExcel/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -536,7 +536,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,18 +603,8 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -663,10 +653,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -675,7 +664,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
